--- a/src/main/resources/Results.xlsx
+++ b/src/main/resources/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>№</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
   <si>
     <t>test2</t>
@@ -74,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -110,7 +113,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>37.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="4">
@@ -121,6 +124,17 @@
         <v>5</v>
       </c>
       <c r="C4" t="n" s="0">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n" s="0">
         <v>31.0</v>
       </c>
     </row>

--- a/src/main/resources/Results.xlsx
+++ b/src/main/resources/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>test5</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,6 +141,17 @@
         <v>31.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
